--- a/Ratios.xlsx
+++ b/Ratios.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vabcg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Palacios\Documents\GitHub\ANF-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1E6BE9-7EC3-4B7E-8522-011579487B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6728E2F2-3FDF-4CA0-B07E-D7CFE16D626B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F718B10-5E47-4307-81B3-A761C1C8D26C}"/>
+    <workbookView xWindow="-19320" yWindow="840" windowWidth="19440" windowHeight="15000" xr2:uid="{8F718B10-5E47-4307-81B3-A761C1C8D26C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -478,16 +478,16 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -586,7 +586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -597,7 +597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -608,7 +608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -619,7 +619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -630,7 +630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -641,7 +641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -652,7 +652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -663,7 +663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -674,7 +674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -685,7 +685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -696,7 +696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -707,7 +707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -718,7 +718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -729,7 +729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -740,7 +740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
